--- a/biology/Zoologie/Caledomedes_flavovittatus/Caledomedes_flavovittatus.xlsx
+++ b/biology/Zoologie/Caledomedes_flavovittatus/Caledomedes_flavovittatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caledomedes flavovittatus, unique représentant du genre Caledomedes, est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caledomedes flavovittatus, unique représentant du genre Caledomedes, est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Raven et Hebron en 2018 mesure 7,8 mm et la femelle 10,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Raven et Hebron en 2018 mesure 7,8 mm et la femelle 10,8 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1880 : Matériaux pour servir à une faune arachnologique de la Nouvelle Calédonie. Annales de la Société Entomologique de Belgique, vol. 23, (C.R.), p. 164-175.
 Raven &amp; Hebron, 2018 : A review of the water spider family Pisauridae in Australia and New Caledonia with descriptions of four new genera and 23 new species. Memoirs of the Queensland Museum, Nature, vol. 60, p. 233-381 (texte intégral).</t>
